--- a/sample_api_data.xlsx
+++ b/sample_api_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,32 +456,67 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>snow_application_service_id</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>platform</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>lifecycle_status</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>classification</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>owner_team</t>
+          <t>api_contract_url</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>contact_email</t>
+          <t>documentation_url</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>api_hosting_country</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>gateway_type</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>gateway_proxy_url</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>gateway_config_url</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>consumer_application_service_ids</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>consuming_country_code</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>consuming_group_member_code</t>
         </is>
       </c>
     </row>
@@ -493,47 +528,82 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jenkins-mcp-api</t>
+          <t>cto-mmf-hk-hase-pa-customer-accounts</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>v1.0.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>APP001234</t>
+          <t>BA0001754</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>gcp</t>
+          <t>AS0003321</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>GCP_OTHER</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>internal</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Jenkins MCP API for CI/CD automation</t>
+          <t>INTERNAL</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>DevOps Team</t>
+          <t>https://example.com/api/contract.yaml</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>devops-team@hsbc.com</t>
+          <t>https://confluence.example.com/api-docs</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>KONG</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>https://proxy.example.com</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://config.example.com</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>AS0003321</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>HASE</t>
         </is>
       </c>
     </row>
@@ -550,42 +620,77 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>v2.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>APP001234</t>
+          <t>BA0001754</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>gcp</t>
+          <t>AS0003322</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>GCP_OTHER</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>internal</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Jenkins Pipeline Management API</t>
+          <t>INTERNAL</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>DevOps Team</t>
+          <t>https://example.com/api/pipeline-contract.yaml</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>devops-team@hsbc.com</t>
+          <t>https://confluence.example.com/pipeline-docs</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>KONG</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>https://proxy.example.com</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>https://config.example.com</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>AS0003322</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>HASE</t>
         </is>
       </c>
     </row>
@@ -640,6 +745,13 @@
           <t>payment-team@example.com</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -692,6 +804,13 @@
           <t>payment-team@example.com</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -744,6 +863,13 @@
           <t>identity@example.com</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -796,6 +922,13 @@
           <t>supply@example.com</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -848,6 +981,13 @@
           <t>platform@example.com</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -900,6 +1040,13 @@
           <t>legacy@example.com</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -952,6 +1099,13 @@
           <t>analytics@example.com</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1004,6 +1158,13 @@
           <t>search@example.com</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1056,6 +1217,13 @@
           <t>finance@example.com</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sample_api_data.xlsx
+++ b/sample_api_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,7 +523,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://alm-github.systems.uk.hsbc/45453684/Jenkins-mcp</t>
+          <t>https://alm-github.systems.uk.hsbc/GCDS-Repository/rdh-master-ui</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://alm-github.systems.uk.hsbc/45453684/Jenkins-mcp</t>
+          <t>https://alm-github.systems.uk.hsbc/GCDS-Repository/rdh-master-ui</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1225,6 +1225,3259 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GDT-MDS/gdt-mds-gcapi-1001-orch-v3.git</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcapi-1001-orch-v3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>v3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>BA0016990</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>AS0016990</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>SHP-IKP</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GDT-MDS/gdt-mds-gcapi-1001-orch-v3/blob/release-v3.2.1/api/api.yaml</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>KONG</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>https://digitalprod-int-rbwm.systems.uk.hsbc/gdt-mds-gcapi-1001-orch-prod-internal-proxy/v3/api/master-data/v3/party</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>AS0016990</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>CDUUK</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GDT-MDS/gdt-mds-gcapi-1018-cdm-v1.git</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcapi-1018-cdm-v1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>v1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>BA0016990</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>AS0016990</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>SHP-IKP</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>KONG</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GDT-MDS/gdt-mds-gcapi-2019-rdh-cache-service-v1.git</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcapi-2019-rdh-cache-service-v1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>v1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>BA0016990</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>AS0016990</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>SHP-IKP</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>KONG</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GDT-MDS/gdt-mds-gcdu-2008-party-v1.git</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcdu-2008-party-v1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>v1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>BA0016990</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>AS0016990</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>SHP-IKP</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>KONG</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GDT-MDS/gdt-mds-gcdu-1002-party-v2.git</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcdu-1002-party-v2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>v2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>BA0016990</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>AS0016990</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>SHP-IKP</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>KONG</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GDT-MDS/gdt-mds-gcapi-2002-reg-cust-reln_v1.git</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcapi-2002-reg-cust-reln_v1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>v1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>BA0016990</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>AS0016990</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>SHP-IKP</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>KONG</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GDT-MDS/gdt-mds-gcapi-2010-ngt-v1.git</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcapi-2010-ngt-v1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>v1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>BA0016990</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>AS0016990</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>SHP-IKP</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>KONG</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GDT-MDS/gdt-mds-gcapi-2009-tss-crt-v1.git</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcapi-2009-tss-crt-v1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>v1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>BA0016990</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>AS0016990</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>SHP-IKP</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>KONG</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GDT-MDS/gdt-mds-gcapi-2011-zcee-source-v1.git</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcapi-2011-zcee-source-v1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>v1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>BA0016990</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>AS0016990</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>SHP-IKP</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>KONG</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GDT-MDS/gdt-mds-gcapi-1009-ros.git</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcapi-1009-ros</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>v1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>BA0016990</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>AS0016990</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>SHP-IKP</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>KONG</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GDT-MDS/gdt-mds-gcapi-1010-obs.git</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcapi-1010-obs</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>v1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>BA0016990</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>AS0016990</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>SHP-IKP</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>KONG</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GDT-MDS/gdt-mds-gcapi-1011-cdm.git</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcapi-1011-cdm</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>v1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>BA0016990</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>AS0016990</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>SHP-IKP</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>KONG</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GDT-MDS/gdt-datac-api-orch.git</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>gdt-datac-api-orch</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-101-acct-srch-pa.git</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcdu-101-acct-srch-pa</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>BA0003325</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>AS0003325</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-101-acct-srch-pa/blob/GCDU-CHILD_ECB/src/main/resources/raml/api.raml</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>https://wpb-confluence.systems.uk.hsbc/display/GCDU/SWIFT+Pre-Validation+-+API+Contract-POL-GCDU</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>KONG</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>https://digitalprod-int-rbwm.systems.uk.hsbc/gdt-mds-gcdu-101-acct-srch-pa-prod-internal-proxy/v1/api/dao/gcdu/party/v1/account-search</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-201-acct-srch-sa.git</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcdu-201-acct-srch-sa</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>BA0003325</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>AS0003325</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-201-acct-srch-sa/blob/GCDU-CHILD_ECB/src/main/resources/raml/api.raml</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>https://wpb-confluence.systems.uk.hsbc/display/GCDU/SWIFT+Pre-Validation+-+API+Contract-POL-GCDU</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>NA as its SAPI</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NA as its SAPI</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-104-gcd-pa.git</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcdu-104-gcd-pa</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>BA0003325</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>AS0003325</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-104-gcd-pa/blob/GCDU-CHILD_ECB/gdt-mds-gcdu-104-gcd-pa-api/api.raml</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://wpb-confluence.systems.uk.hsbc/display/GCDU/TRB+API+-+Contract+information</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>KONG</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>https://digitalprod-int-rbwm.systems.uk.hsbc/gdt-mds-gcdu-104-gcd-pa-prod-internal-proxy/v1/api/dao/gcdu/party/v1/getDetails</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-206-trb-sa.git</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcdu-206-trb-sa</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>BA0003325</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>AS0003325</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-206-trb-sa/blob/GCDU-ECB_CHILD/gdt-mds-gcdu-206-trb-sa-api/api.raml</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>https://wpb-confluence.systems.uk.hsbc/display/GCDU/TRB+API+-+Contract+information</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>NA as its SAPI</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NA as its SAPI</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-103-sabb-pa.git</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcdu-103-sabb-pa</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>BA0003325</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>AS0003325</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-103-sabb-pa/blob/GCDU-ECB_CHILD/gdt-mds-gcdu-103-sabb-pa-api/api.raml</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>https://wpb-confluence.systems.uk.hsbc/display/MPMPS/Documentation+of+GCDU+APIs+used+in+SABB+GVGT</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>KONG</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>https://digitalprod-int-rbwm.systems.uk.hsbc/gdt-mds-gcdu-103-sabb-pa-prod-internal-proxy/v0/api/dao/gcdu/party/v1/customer/validate</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-204-sabb-cust-info-sa.git</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcdu-204-sabb-cust-info-sa</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>BA0003325</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>AS0003325</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-204-sabb-cust-info-sa/blob/ecb-child/gdt-mds-gcdu-204-sabb-cust-info-sa-api/api.raml</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>https://wpb-confluence.systems.uk.hsbc/display/MPMPS/Documentation+of+GCDU+APIs+used+in+SABB+GVGT</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>NA as its SAPI</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NA as its SAPI</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-105-mobilex-pa.git</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcdu-105-mobilex-pa</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>BA0003325</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>AS0003325</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-105-mobilex-pa/blob/GCDU-CHILD_ECB/gdt-mds-gcdu-105-mobilex-pa-api/api.raml</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>https://wpb-confluence.systems.uk.hsbc/display/GCDU/API+Contract-PAPI+-+Indonesia+Mobile+-X</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>KONG</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>https://digitalprod-int-rbwm.systems.uk.hsbc/gdt-mds-gcdu-105-mobilex-pa-prod-internal-proxy/v0/api/dao/gcdu/party/v1/samecustomer/validate</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-205-sabb-cust-identifer-sa.git</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcdu-205-cust-identifer-sa</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>BA0003325</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>AS0003325</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-205-sabb-cust-identifer-sa/blob/GCDU-CHILD_ECB/gdt-mds-gcdu-205-cust-identifer-sa-api/api.raml</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>https://wpb-confluence.systems.uk.hsbc/display/GCDU/API+Contract-PAPI+-+Indonesia+Mobile+-X</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>NA as its SAPI</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NA as its SAPI</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-107-gtff-pa.git</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcdu-107-gtff-pa</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>BA0003325</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>AS0003325</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-107-gtff-pa/blob/GCDU-CHILD_ECB/gdt-mds-gcdu-107-gtff-pa/api.raml</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>https://wpb-confluence.systems.uk.hsbc/display/GCDU/GTFF+API+Changes+Specification+-+GCDU#tab-RequestBody</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>KONG</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>https://digitalprod-int-rbwm.systems.uk.hsbc/gdt-mds-gcdu-107-gtff-pa-prod-internal-proxy/v0/api/dao/gcdu/customers/v1/getAccountInfo</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-207-gtff-sa.git</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcdu-207-gtff-sa</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>BA0003325</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>AS0003325</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-207-gtff-sa/blob/GCDU-ECB_CHILD/gdt-mds-gcdu-207-gtff-sa-api/api.raml</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>https://wpb-confluence.systems.uk.hsbc/display/GCDU/GTFF+API+Changes+Specification+-+GCDU#tab-RequestBody</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>NA as its SAPI</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NA as its SAPI</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-106-p1pa-pa.git</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcdu-106-p1pa-pa</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>BA0003325</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>AS0003325</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-106-p1pa-pa/blob/GCDU-CHILD_ECB/gdt-mds-gcdu-106-p1pa-pa/api.raml</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>https://wpb-confluence.systems.uk.hsbc/display/GCDU/P1PA+API+Changes+Specification+-+GCDU</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>KONG</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>https://digitalprod-int-rbwm.systems.uk.hsbc/gdt-mds-gcdu-106-p1pa-pa-prod-internal-proxy/v0/api/dao/gcdu/customers/v1/getEligibilityMarkers</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-208-p1pa-sa.git</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcdu-208-p1pa</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>BA0003325</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>AS0003325</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-208-p1pa-sa/blob/GCDU-CHILD_ECB/gdt-mds-gcdu-208-p1pa-sa/api.raml</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>https://wpb-confluence.systems.uk.hsbc/display/GCDU/P1PA+API+Changes+Specification+-+GCDU</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>NA as its SAPI</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NA as its SAPI</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-209-Name-Search-sa.git</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcdu-209-Name-Search-sa</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>BA0003325</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>AS0003325</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-209-Name-Search-sa/blob/GCDU-CHILD_ECB/gdt-mds-gcdu-209-name-srch-sa-api/api.raml</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>https://wpb-confluence.systems.uk.hsbc/display/GCDU/209+Mappings+for+delta+date+range+API%27s</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>NA as its SAPI</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NA as its SAPI</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-210-delta-sa.git</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcdu-210-delta-sa</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>BA0003325</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>AS0003325</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-210-delta-sa/blob/Child-Master-ECB/gdt-mds-gcdu-210-delta-sa-api/api.raml</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>https://wpb-confluence.systems.uk.hsbc/display/GCDU/210</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>NA as its SAPI</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NA as its SAPI</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-202-browser-sa.git</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>gdt-mds-gcdu-202-browser-sa</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>BA0003325</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>AS0003325</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GCDU-Repository/gdt-mds-gcdu-202-browser-sa/blob/GCDU-PROD-ECB/gdt-mds-gcdu-202-browser-sa-api/api.raml</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>https://wpb-confluence.systems.uk.hsbc/display/GCDU/GCDU+Browser+Modernization</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>NA as its SAPI</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NA as its SAPI</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GBM-CIS-Mastergroup/codap-automg-service</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>cis-automg-app</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1.0.1.0</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>BA0002017</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>AS0002017</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>codap-automg-service/api.yaml at ikp_master · GBM-CIS-Mastergroup/codap-automg-service</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>https://wpb-confluence.systems.uk.hsbc/display/MPMPS/CIS+MG-Creation</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GBM-CIS-Mastergroup/codap-mastergroup-cache-refdata</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>cis-refdata-app</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>3.1.9.10</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>BA0002017</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>AS0002017</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GBM-CIS-Mastergroup/codap-mastergroup-web</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>cis-web-app</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>5.3.6.51</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>BA0002017</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>AS0002017</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GBM-CIS-Mastergroup/codap-mastergroup-service-bulk</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>cis-bulk-app</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>3.5.3.62</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>BA0002017</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>AS0002017</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GBM-CIS-Mastergroup/codap-prci-service</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>cis-prci-app</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1.0.0.0</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>BA0002017</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>AS0002017</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GBM-CIS-Mastergroup/codap-prci-service/blob/ikp_master/api.yaml</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>https://gbmt-confluence.prd.fx.gbm.cloud.uk.hsbc/display/EDD/CIS+And+PRCI+Integration</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GBM-CIS-Mastergroup/codap-mastergroup-horis-service</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>cis-horis-app</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1.0.0.1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>BA0002017</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>AS0002017</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GBM-CIS-Mastergroup/codap-mastergroup-gs</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>cis-gs-app</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>3.4.2.34</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>BA0002017</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>AS0002017</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>https://gbmt-confluence.prd.fx.gbm.cloud.uk.hsbc/display/EDD/Mastergroup+GS+API</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GBM-CIS-Mastergroup/cis-cmeentitlements-service</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>cis-cmedataload-service-app</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1.0.1.12</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>BA0002017</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>AS0002017</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GBM-CIS-Mastergroup/cis-ace-service</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>cis-ace-app</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1.0.0.7</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>BA0002017</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>AS0002017</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GBM-CIS-Mastergroup/cis-ace-service/blob/ikp_master/src/main/resources/cis-ace-service.yaml</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>https://gbmt-confluence.prd.fx.gbm.cloud.uk.hsbc/display/EDD/CIS+And+CARM+Integration+-+ACE+Recording</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GBM-CIS-Mastergroup/cis-industry-hierarchy-service</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>cis-industry-hierarchy-app</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1.0.0.2</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>BA0002017</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>AS0002017</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GBM-CIS-Mastergroup/codap-mastergroup-gs/blob/ikp_migration/api/cis-industry-hierarchy-batch-api/api.yaml</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>https://gbmt-confluence.prd.fx.gbm.cloud.uk.hsbc/display/EDD/Mastergroup+GS+API</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GBM-CIS-Mastergroup/cis-grid-cin-mapping</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>cis-cin-grid-app</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1.0.0.25</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>BA0002017</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>AS0002017</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GBM-CIS-Mastergroup/codap-publication</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>cis-publication-app</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>3.3.5.8</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>BA0002017</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>AS0002017</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GBM-CIS-Mastergroup/codap-client-list-provisioning</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>cis-client-provisioning-app</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2.4.1.33</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>BA0002017</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>AS0002017</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GBM-CIS-Mastergroup/cis-party-service</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>cis-party-app</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1.1.7.13</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>BA0002017</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>AS0002017</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GBM-CIS-Mastergroup/mastergroup-ngt-listener-service</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>cis-ngt-listener-app</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1.4.2.1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>BA0002017</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>AS0002017</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GBM-CIS-Mastergroup/mastergroup-search-service</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>cis-search-app</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1.2.15.61</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>BA0002017</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>AS0002017</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>codap-mastergroup-gs/api/cis-mastergroup-search-api/api.yaml at ikp_master · GBM-CIS-Mastergroup/codap-mastergroup-gs</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>https://gbmt-confluence.prd.fx.gbm.cloud.uk.hsbc/display/EDD/Mastergroup+GS+API</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GBM-CIS-Mastergroup/codap-mastergroup-activiti-service</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>cis-activiti-app</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>3.0.3.0</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>BA0002017</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>AS0002017</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GBM-CIS-Mastergroup/codap-mastergroup-service-core</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>cis-core-app</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>6.1.6.32</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>BA0002017</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>AS0002017</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GBM-CIS-Mastergroup/codap-mastergroup-cache-trandata</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>cis-trandata-app</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>3.0.9.13</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>BA0002017</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>AS0002017</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/GBM-CIS-Mastergroup/codap-auth-token</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>cis-auth-token-app</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>3.1.5.1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>BA0002017</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>AS0002017</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>IKP</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>codap-mastergroup-gs/api/cis-auth-token-api/api.yaml at ikp_master · GBM-CIS-Mastergroup/codap-mastergroup-gs</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>https://gbmt-confluence.prd.fx.gbm.cloud.uk.hsbc/display/EDD/Mastergroup+GS+API</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/gbm-bigdata-it-data-products/trade-recon-restapi</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>trade-recon-restapi</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1.132.0</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>BA0013533</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>AS0013533</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>On Prem</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/gbm-bigdata-it-data-products/mcm-surveillance-api</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>mcm-surveillance-api</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>BA0013533</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>AS0013533</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>On Prem</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://alm-github.systems.uk.hsbc/gbm-bigdata-it-data-products/cbtm-api</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>cbtm-api</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>BA0013533</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>AS0013533</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>On Prem</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
